--- a/data/trans_dic/P9_1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P9_1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee teléfono móvil en su vivienda actual</t>
+          <t>Población que posee teléfono móvil en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>97,0; 100,0</t>
+          <t>97,19; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>98,59; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>97,03; 100,0</t>
+          <t>96,93; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>98,75; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,83; 100,0</t>
+          <t>97,95; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,33; 100</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>99,44%</t>
+          <t>99,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>99,76%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,94; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>98,78; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,96; 100,0</t>
+          <t>96,89; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>97,04; 100,0</t>
+          <t>97,23; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>98,85; 100,0</t>
+          <t>98,4; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>98,61; 100,0</t>
+          <t>98,47; 100,0</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>99,24; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>99,12; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>99,43; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>99,33; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>99,67; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>99,62; 100</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>99,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>99,64%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,18; 100,0</t>
+          <t>98,35; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>97,66; 100,0</t>
+          <t>97,55; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>99,46; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>97,89; 100,0</t>
+          <t>98,31; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,29; 100,0</t>
+          <t>99,23; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,81; 100,0</t>
+          <t>98,74; 100,0</t>
         </is>
       </c>
     </row>
@@ -926,7 +927,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +937,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>99,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>99,35%</t>
+          <t>99,36%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>98,29; 100,0</t>
+          <t>98,37; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>96,96; 100,0</t>
+          <t>96,81; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>99,2; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>97,66; 100,0</t>
+          <t>97,97; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>98,91; 100,0</t>
+          <t>99,01; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>98,26; 99,8</t>
+          <t>98,21; 99,81</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1007,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>94,77%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>92,55; 98,54</t>
+          <t>92,58; 98,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,07; 98,83</t>
+          <t>92,98; 99,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,0; 95,81</t>
+          <t>89,9; 95,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>89,24; 96,34</t>
+          <t>88,34; 95,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,43; 96,58</t>
+          <t>92,35; 96,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>90,15; 96,54</t>
+          <t>91,75; 96,84</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>99,35%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>98,87%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,58; 99,65</t>
+          <t>98,61; 99,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>97,05; 99,59</t>
+          <t>98,67; 99,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>97,69; 99,05</t>
+          <t>97,77; 99,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>97,58; 99,1</t>
+          <t>97,46; 99,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,43; 99,22</t>
+          <t>98,36; 99,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,95; 99,22</t>
+          <t>98,32; 99,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee teléfono móvil en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>510052</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>502066</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>460029</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>468797</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>970081</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>970863</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>498537; 512969</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>448642; 462867</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>955840; 975836</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>390.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>563417</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>573295</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>515988</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>516402</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1079405</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1089697</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>502722; 518857</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>504703; 519056</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1064968; 1082274</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1075664; 1092351</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>588.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>502.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>675868</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>686369</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>694210</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>712464</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1370077</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1398833</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>647.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>561.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>636385</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>644835</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>703260</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>683259</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1339646</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1328095</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>627888; 638454</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>631428; 647258</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>674042; 685620</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1331351; 1341715</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1316028; 1332879</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>477.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>509929</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>490849</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>502430</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>507080</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1012360</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>997929</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>503595; 511921</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>479512; 495312</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>498699; 509053</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1004265; 1014352</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>986340; 1002438</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>481.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>526930</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>529716</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>682532</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>667199</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1209461</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1196915</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>506277; 538511</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>506950; 540369</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>657245; 701483</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>634054; 687251</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1180210; 1232475</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1158774; 1223039</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1339.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1145.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1581.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1333.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2920.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2478.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3422581</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3427131</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3558448</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3555201</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>6981029</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6982332</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3401584; 3435283</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3403486; 3439825</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3532297; 3580692</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3521067; 3577323</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6946706; 7005735</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>6943723; 7011923</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>